--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_01_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_01_Initial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C35631-2AB4-4327-A2A6-2CAC508501A9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D91068-D548-4739-8245-564E6291A9B1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25620" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,16 +25,10 @@
     <definedName name="vlookupFALSE">VLOOKUP(#REF!,#REF!,7)</definedName>
     <definedName name="vlookupTRUE">VLOOKUP(#REF!,#REF!,6)</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -228,7 +222,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -246,9 +240,6 @@
     </xf>
     <xf numFmtId="37" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -670,149 +661,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:O7"/>
+  <dimension ref="A2:M6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
-    <col min="4" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" customWidth="1"/>
-    <col min="9" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="3.42578125" customWidth="1"/>
-    <col min="12" max="12" width="1.42578125" hidden="1" customWidth="1"/>
-    <col min="13" max="15" width="9.42578125" customWidth="1"/>
-    <col min="16" max="16" width="7" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" customWidth="1"/>
+    <col min="7" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="1.42578125" hidden="1" customWidth="1"/>
+    <col min="11" max="13" width="9.42578125" customWidth="1"/>
+    <col min="14" max="14" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="1"/>
-      <c r="D3" s="12" t="s">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="2" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="12"/>
+      <c r="M2" s="11"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="3" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="3" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="3" t="s">
+      <c r="I3" s="3"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
-      <c r="D5" s="9" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="9" t="s">
+      <c r="I4" s="8"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C7" s="4"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_01_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_01_Initial.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D91068-D548-4739-8245-564E6291A9B1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26004"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25620" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25620" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Graphics 1 to 11" sheetId="1" r:id="rId1"/>
@@ -25,57 +19,30 @@
     <definedName name="vlookupFALSE">VLOOKUP(#REF!,#REF!,7)</definedName>
     <definedName name="vlookupTRUE">VLOOKUP(#REF!,#REF!,6)</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Cash</t>
   </si>
   <si>
-    <t>Accounts</t>
-  </si>
-  <si>
-    <t>Receivable</t>
-  </si>
-  <si>
-    <t>Payable</t>
-  </si>
-  <si>
-    <t>Common</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>Retained</t>
-  </si>
-  <si>
-    <t>Earnings</t>
-  </si>
-  <si>
-    <t>Fees</t>
-  </si>
-  <si>
-    <t>Earned</t>
-  </si>
-  <si>
-    <t>Rent</t>
-  </si>
-  <si>
-    <t>Expense</t>
-  </si>
-  <si>
     <t>Assets</t>
   </si>
   <si>
@@ -97,22 +64,49 @@
     <t>=</t>
   </si>
   <si>
-    <t>Supplies</t>
-  </si>
-  <si>
-    <t>Issued stock for cash, $4,000</t>
+    <t>Retained Earnings</t>
+  </si>
+  <si>
+    <t>Accounts Receivable</t>
+  </si>
+  <si>
+    <t>Accounts Payable</t>
+  </si>
+  <si>
+    <t>Common 
+Stock</t>
+  </si>
+  <si>
+    <t>Fees Earned</t>
+  </si>
+  <si>
+    <t>Rent Expense</t>
+  </si>
+  <si>
+    <t>Supplies Expense</t>
+  </si>
+  <si>
+    <t>Issue stock for cash, $4000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0;\ \(#,##0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -132,13 +126,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -149,6 +136,42 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -158,7 +181,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -167,28 +190,142 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1" tint="0.499984740745262"/>
       </left>
       <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1" tint="0.499984740745262"/>
       </left>
       <right/>
       <top/>
@@ -197,73 +334,145 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="Comma 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+  <cellStyles count="23">
+    <cellStyle name="Comma 2" xfId="7"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 2 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 29" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Percent 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="6"/>
+    <cellStyle name="Normal 2 3" xfId="8"/>
+    <cellStyle name="Normal 29" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 3 2" xfId="4"/>
+    <cellStyle name="Percent 2" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -279,7 +488,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Start"/>
@@ -653,155 +862,146 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" customWidth="1"/>
-    <col min="7" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="10" width="1.42578125" hidden="1" customWidth="1"/>
-    <col min="11" max="13" width="9.42578125" customWidth="1"/>
-    <col min="14" max="14" width="7" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="3.6640625" customWidth="1"/>
+    <col min="9" max="10" width="9.5" customWidth="1"/>
+    <col min="11" max="11" width="3.5" customWidth="1"/>
+    <col min="12" max="14" width="9.5" customWidth="1"/>
+    <col min="15" max="15" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:14" ht="15">
+      <c r="C2" s="6"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+    </row>
+    <row r="3" spans="2:14" ht="16" thickBot="1">
+      <c r="C3" s="8"/>
+      <c r="D3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="17"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="17"/>
+    </row>
+    <row r="4" spans="2:14" ht="45">
+      <c r="C4" s="12"/>
+      <c r="D4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="M4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="N4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10" t="s">
+    </row>
+    <row r="5" spans="2:14" ht="33" customHeight="1">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="11"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="L2:M2"/>
+  <mergeCells count="5">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="L2:N2"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="59" orientation="portrait"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="16" max="1048575" man="1"/>
+  </colBreaks>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_01_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_01_Initial.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26004"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E03B333-3425-491B-A620-B256BE114D0E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25620" windowHeight="17460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25620" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphics 1 to 11" sheetId="1" r:id="rId1"/>
@@ -21,17 +27,11 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -92,10 +92,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0;\ \(#,##0\)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#,##0;\ \(#,##0\)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -367,7 +367,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -392,7 +392,7 @@
     <xf numFmtId="37" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="37" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -409,9 +409,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -430,6 +427,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -450,7 +450,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="23">
-    <cellStyle name="Comma 2" xfId="7"/>
+    <cellStyle name="Comma 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
@@ -466,13 +466,13 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="6"/>
-    <cellStyle name="Normal 2 3" xfId="8"/>
-    <cellStyle name="Normal 29" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="Normal 3 2" xfId="4"/>
-    <cellStyle name="Percent 2" xfId="5"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 2 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 29" xfId="2" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Percent 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -488,7 +488,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Start"/>
@@ -862,145 +862,146 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="3.5" customWidth="1"/>
-    <col min="7" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="3.6640625" customWidth="1"/>
-    <col min="9" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="3.5" customWidth="1"/>
-    <col min="12" max="14" width="9.5" customWidth="1"/>
-    <col min="15" max="15" width="7" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" customWidth="1"/>
+    <col min="11" max="13" width="9.42578125" customWidth="1"/>
+    <col min="14" max="14" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="15">
-      <c r="C2" s="6"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="20" t="s">
+    <row r="1" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="6"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22"/>
     </row>
-    <row r="3" spans="2:14" ht="16" thickBot="1">
-      <c r="C3" s="8"/>
-      <c r="D3" s="16" t="s">
+    <row r="2" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8"/>
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="9" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="F2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="11" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="L2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="17"/>
+      <c r="M2" s="17"/>
     </row>
-    <row r="4" spans="2:14" ht="45">
-      <c r="C4" s="12"/>
-      <c r="D4" s="13" t="s">
+    <row r="3" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="15" t="s">
+      <c r="J3" s="7"/>
+      <c r="K3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="L3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="M3" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="33" customHeight="1">
-      <c r="B5" s="1">
+    <row r="4" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="59" orientation="portrait"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="16" max="1048575" man="1"/>
+    <brk id="15" max="1048575" man="1"/>
   </colBreaks>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_01_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_01_Initial.xlsx
@@ -154,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -202,21 +202,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -379,7 +364,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -389,9 +374,6 @@
     <xf numFmtId="37" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -404,39 +386,39 @@
     <xf numFmtId="37" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="5" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="4" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -918,123 +900,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="29" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="16" t="s">
+    <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="16"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
     </row>
-    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="19" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="L2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="16"/>
+      <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="16"/>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="20"/>
+      <c r="K3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="4"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="20"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="9"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="J1:J4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_01_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_01_Initial.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Assets</t>
   </si>
@@ -73,15 +73,25 @@
   </si>
   <si>
     <t>Issue Stock for Cash, $4000</t>
+  </si>
+  <si>
+    <t>1.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -145,16 +155,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEF1E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -219,205 +249,231 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="6" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="4" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="3" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="2" fillId="2" borderId="3" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="4" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -567,6 +623,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFEF1E6"/>
+      <color rgb="FFFEF4EC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -900,129 +962,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="2" width="29" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="26.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="1.375" customWidth="1"/>
+    <col min="6" max="6" width="2.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.625" customWidth="1"/>
+    <col min="10" max="10" width="1.375" customWidth="1"/>
+    <col min="12" max="12" width="2.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="1.875" customWidth="1"/>
+    <col min="16" max="16" width="1.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="16"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="18" t="s">
+    <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
     </row>
-    <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="14" t="s">
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="18"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
-    <row r="3" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="24"/>
+      <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="H3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="13"/>
+      <c r="K3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="17"/>
+      <c r="M3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="13"/>
+      <c r="O3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="8"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A4" numberStoredAsText="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_01_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_01_Initial.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08A0479-7A7B-4874-BF31-25A4BBE9C116}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -619,7 +620,7 @@
     <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="135"/>
+    <cellStyle name="Normal 2" xfId="135" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -961,11 +962,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_01_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_01_Initial.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08A0479-7A7B-4874-BF31-25A4BBE9C116}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CBF90A-09F9-4338-8867-1F02A5A89030}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -194,50 +194,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -259,6 +220,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -404,7 +376,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -421,7 +393,7 @@
     <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -437,11 +409,8 @@
     <xf numFmtId="37" fontId="11" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="11" fillId="0" borderId="6" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="3" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="11" fillId="0" borderId="4" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -450,31 +419,31 @@
     <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="2" borderId="3" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="2" borderId="4" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -983,32 +952,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="24"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
       <c r="L1" s="11"/>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
     </row>
     <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24"/>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
@@ -1018,24 +987,24 @@
       <c r="H2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
       <c r="L2" s="11"/>
       <c r="M2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="9"/>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
     </row>
     <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
@@ -1052,14 +1021,14 @@
       <c r="H3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="13" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="17"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="13" t="s">
         <v>12</v>
       </c>
@@ -1073,26 +1042,26 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="E4" s="22"/>
+      <c r="G4" s="23"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="19"/>
+      <c r="I4" s="22"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="21"/>
+      <c r="K4" s="24"/>
       <c r="L4" s="11"/>
-      <c r="M4" s="22"/>
+      <c r="M4" s="25"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="21"/>
+      <c r="O4" s="24"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="23"/>
+      <c r="Q4" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_01_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_01_Initial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CBF90A-09F9-4338-8867-1F02A5A89030}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD37F4F5-FC2B-4E2F-B65F-9E90CF673FB9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,10 +73,10 @@
     <t>Supplies Expense</t>
   </si>
   <si>
-    <t>Issue Stock for Cash, $4000</t>
-  </si>
-  <si>
     <t>1.</t>
+  </si>
+  <si>
+    <t>Issue Stock for Cash, $4,000</t>
   </si>
 </sst>
 </file>
@@ -419,6 +419,21 @@
     <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="2" borderId="4" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -429,21 +444,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="2" borderId="4" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -952,32 +952,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="18"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
       <c r="L1" s="11"/>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
     </row>
     <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="18"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
@@ -987,24 +987,24 @@
       <c r="H2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
       <c r="L2" s="11"/>
       <c r="M2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="9"/>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
     </row>
     <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
@@ -1043,25 +1043,25 @@
     </row>
     <row r="4" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="22"/>
-      <c r="G4" s="23"/>
+      <c r="E4" s="18"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="22"/>
+      <c r="I4" s="18"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="24"/>
+      <c r="K4" s="20"/>
       <c r="L4" s="11"/>
-      <c r="M4" s="25"/>
+      <c r="M4" s="21"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="24"/>
+      <c r="O4" s="20"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="26"/>
+      <c r="Q4" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_01_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_01_Initial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mallika/Dropbox/Accounting Courseware/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD37F4F5-FC2B-4E2F-B65F-9E90CF673FB9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B38D3B-FC82-E54C-B54F-A00F1C414155}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Assets</t>
   </si>
@@ -376,7 +376,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -445,6 +445,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -938,20 +941,20 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="1.375" customWidth="1"/>
-    <col min="6" max="6" width="2.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.625" customWidth="1"/>
-    <col min="10" max="10" width="1.375" customWidth="1"/>
-    <col min="12" max="12" width="2.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="1.875" customWidth="1"/>
-    <col min="16" max="16" width="1.375" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="1.33203125" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="1.33203125" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" customWidth="1"/>
+    <col min="16" max="16" width="1.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="23"/>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -963,15 +966,13 @@
       <c r="J1" s="26"/>
       <c r="K1" s="26"/>
       <c r="L1" s="11"/>
-      <c r="M1" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
     </row>
-    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="23"/>
       <c r="C2" s="24" t="s">
         <v>0</v>
@@ -1003,7 +1004,7 @@
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
     </row>
-    <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="23"/>
       <c r="C3" s="13" t="s">
         <v>7</v>
@@ -1041,7 +1042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>15</v>
       </c>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_01_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_01_Initial.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mallika/Dropbox/Accounting Courseware/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B38D3B-FC82-E54C-B54F-A00F1C414155}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Assets</t>
   </si>
@@ -49,9 +48,6 @@
   </si>
   <si>
     <t>Cash</t>
-  </si>
-  <si>
-    <t>Retained Earnings</t>
   </si>
   <si>
     <t>Accounts Receivable</t>
@@ -82,17 +78,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -145,13 +134,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF008000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -234,220 +216,236 @@
   </borders>
   <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="1" fillId="2" borderId="4" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="11" fillId="0" borderId="3" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="2" borderId="4" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -592,7 +590,7 @@
     <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="135" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Normal 2" xfId="135"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -934,144 +932,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="1.33203125" customWidth="1"/>
-    <col min="6" max="6" width="2.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" customWidth="1"/>
-    <col min="10" max="10" width="1.33203125" customWidth="1"/>
-    <col min="12" max="12" width="2.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="1.83203125" customWidth="1"/>
-    <col min="16" max="16" width="1.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="26.625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="11" style="20"/>
+    <col min="4" max="4" width="1.375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="11" style="20"/>
+    <col min="6" max="6" width="2.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11" style="20"/>
+    <col min="8" max="8" width="2.625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="20" customWidth="1"/>
+    <col min="10" max="10" width="2.625" style="25" customWidth="1"/>
+    <col min="11" max="11" width="11" style="20"/>
+    <col min="12" max="12" width="2.625" style="20" customWidth="1"/>
+    <col min="13" max="13" width="11" style="20"/>
+    <col min="14" max="14" width="1.375" style="20" customWidth="1"/>
+    <col min="15" max="16384" width="11" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="23"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
+    <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
     </row>
-    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
+    <row r="2" spans="1:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="21"/>
+      <c r="C2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="10" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="8" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="25" t="s">
+      <c r="L2" s="15"/>
+      <c r="M2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
     </row>
-    <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="23"/>
-      <c r="C3" s="13" t="s">
+    <row r="3" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="21"/>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="17"/>
+      <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="13" t="s">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13" t="s">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13" t="s">
+    </row>
+    <row r="4" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="B4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="18"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="22"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <mergeCells count="5">
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="K1:O1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
